--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Ocean_Surface_Water_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Ocean_Surface_Water_mass_flows.xlsx
@@ -484,25 +484,25 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>2.340261276131464E-07</v>
+        <v>7.627930459241456E-13</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001198505387208768</v>
+        <v>3.90645089157181E-10</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000168814166872967</v>
+        <v>5.502388722896761E-10</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.246555215476848E-06</v>
+        <v>4.063066203009719E-12</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.442188388206546E-23</v>
+        <v>1.121959070153541E-28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -525,25 +525,25 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2.775401752559786E-11</v>
+        <v>4.776009410686622E-14</v>
       </c>
       <c r="D3">
-        <v>2.742505715679823E-11</v>
+        <v>4.719400747970281E-14</v>
       </c>
       <c r="E3">
-        <v>1.030312961397694E-07</v>
+        <v>1.772998952331601E-10</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.002029172446271E-08</v>
+        <v>3.445162546018305E-11</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.478335587988697E-10</v>
+        <v>2.543972120027284E-13</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.082217563784844E-27</v>
+        <v>7.024824237833165E-30</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -566,25 +566,25 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>4.291118015740673E-15</v>
+        <v>1.872491002410639E-15</v>
       </c>
       <c r="D4">
-        <v>4.240256630944081E-14</v>
+        <v>1.850296906360981E-14</v>
       </c>
       <c r="E4">
-        <v>3.087798918263475E-08</v>
+        <v>1.347405424528664E-08</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.095387340589179E-12</v>
+        <v>1.350716741643516E-12</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.285691600892735E-14</v>
+        <v>9.973943716433702E-15</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.31161860295496E-31</v>
+        <v>2.754165464880795E-31</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -607,25 +607,25 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.134301105633133E-15</v>
+        <v>9.257468677323573E-16</v>
       </c>
       <c r="D5">
-        <v>1.120856561624513E-13</v>
+        <v>9.147742569835364E-14</v>
       </c>
       <c r="E5">
-        <v>6.963108277356937E-05</v>
+        <v>5.682861142806018E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8.182252899858944E-13</v>
+        <v>6.677852075979816E-13</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.041927769216771E-15</v>
+        <v>4.931050212011886E-15</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.668394095292838E-31</v>
+        <v>1.361640749700588E-31</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -648,25 +648,25 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>9.27782185559074E-13</v>
+        <v>1.361315705238656E-12</v>
       </c>
       <c r="D6">
-        <v>9.167854507747946E-10</v>
+        <v>1.345180422624706E-09</v>
       </c>
       <c r="E6">
-        <v>560.2056495140633</v>
+        <v>821.9782193676954</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.692533790656E-10</v>
+        <v>9.819817085160352E-10</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.941891463276961E-12</v>
+        <v>7.251135629953755E-12</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.364634410049921E-28</v>
+        <v>2.002299982932536E-28</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -689,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.058264411305709E-06</v>
+        <v>6.888708747556553E-07</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -698,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.488008255107418E-12</v>
+        <v>3.572386075704471E-12</v>
       </c>
       <c r="G7">
-        <v>0.007633764090700125</v>
+        <v>0.004969152974114131</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.636913428090938E-05</v>
+        <v>3.669315005443532E-05</v>
       </c>
       <c r="J7">
-        <v>0.00677608157065216</v>
+        <v>0.004410849679081186</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.556555033150118E-21</v>
+        <v>1.013230168033768E-21</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -730,25 +730,25 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>7.661920619958547E-07</v>
+        <v>2.781369441358133E-07</v>
       </c>
       <c r="D8">
-        <v>7.573628944890427E-08</v>
+        <v>2.749318500198406E-08</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.834014221158392E-11</v>
+        <v>1.028781286322824E-11</v>
       </c>
       <c r="G8">
-        <v>0.005526907441049544</v>
+        <v>0.002006333949963742</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.081171280655933E-05</v>
+        <v>1.481514315796482E-05</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.126958534859766E-21</v>
+        <v>4.090995177334069E-22</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -771,25 +771,25 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4.278574176783602E-07</v>
+        <v>1.854018461962111E-07</v>
       </c>
       <c r="D9">
-        <v>4.227862879780718E-07</v>
+        <v>1.832043926290027E-07</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.0787184855619E-08</v>
+        <v>1.334089506356708E-08</v>
       </c>
       <c r="G9">
-        <v>0.003086338873460641</v>
+        <v>0.00133739162039466</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.279010044421448E-05</v>
+        <v>9.875548542039827E-06</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.293168416541185E-22</v>
+        <v>2.726995009649529E-22</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -812,25 +812,25 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>1.134300391317885E-07</v>
+        <v>9.257458033827716E-08</v>
       </c>
       <c r="D10">
-        <v>1.120855856149457E-06</v>
+        <v>9.147732055543041E-07</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6.963103750412181E-05</v>
+        <v>5.682854493220766E-05</v>
       </c>
       <c r="G10">
-        <v>0.0008182247747163615</v>
+        <v>0.000667784439832047</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.041923964370676E-06</v>
+        <v>4.931044542685385E-06</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.66839304463765E-22</v>
+        <v>1.361639184195137E-22</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -853,25 +853,25 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>9.266649751835256E-05</v>
+        <v>0.0001359659559556395</v>
       </c>
       <c r="D11">
-        <v>0.009156814823720636</v>
+        <v>0.01343543906760231</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>559.5310649137454</v>
+        <v>820.9782193700295</v>
       </c>
       <c r="G11">
-        <v>0.6684474821313834</v>
+        <v>0.9807870519346413</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.004935940570380392</v>
+        <v>0.007242314063495054</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.362991153965176E-19</v>
+        <v>1.999864030376811E-19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -894,13 +894,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>9.234994062874855E-11</v>
+        <v>3.881395958277108E-14</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0001048646132945447</v>
+        <v>4.407377887160568E-08</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.45953948206245E-09</v>
+        <v>1.033725256335287E-12</v>
       </c>
       <c r="J12">
-        <v>6.406604529069686E-05</v>
+        <v>2.692645902759782E-08</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>6.791675282712857E-26</v>
+        <v>2.854488136405577E-29</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -935,13 +935,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>5.595629799824529E-15</v>
+        <v>2.804018764252148E-15</v>
       </c>
       <c r="D13">
-        <v>4.146979809686996E-14</v>
+        <v>2.078087653636733E-14</v>
       </c>
       <c r="E13">
-        <v>2.369712222141141E-08</v>
+        <v>1.187483406598804E-08</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.490274095031666E-13</v>
+        <v>7.467893116300725E-14</v>
       </c>
       <c r="J13">
-        <v>7.592213934286772E-09</v>
+        <v>3.804524440595465E-09</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.115184086090163E-30</v>
+        <v>2.062154539978769E-30</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -976,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>2.988274793289977E-17</v>
+        <v>4.11401575365547E-17</v>
       </c>
       <c r="D14">
-        <v>8.858566900875909E-16</v>
+        <v>1.219576053274894E-15</v>
       </c>
       <c r="E14">
-        <v>1.085430976810692E-08</v>
+        <v>1.494333837079457E-08</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.958618909020412E-16</v>
+        <v>1.095678471155684E-15</v>
       </c>
       <c r="J14">
-        <v>2.351889649899573E-10</v>
+        <v>3.237892007881076E-10</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.197661624183378E-32</v>
+        <v>3.025563299398062E-32</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1017,13 +1017,13 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1.307414435891794E-11</v>
+        <v>1.742391472607643E-11</v>
       </c>
       <c r="D15">
-        <v>3.29439097518611E-09</v>
+        <v>4.390435492388066E-09</v>
       </c>
       <c r="E15">
-        <v>4.33124142615983</v>
+        <v>5.772246289752951</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.482013526593699E-10</v>
+        <v>4.640480103084508E-10</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>9.615094766768125E-27</v>
+        <v>1.281403866288479E-26</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1058,13 +1058,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>2.758923768705194E-11</v>
+        <v>3.84794750988665E-11</v>
       </c>
       <c r="D16">
-        <v>6.829188716747051E-08</v>
+        <v>9.524858937833452E-08</v>
       </c>
       <c r="E16">
-        <v>159075.3652406778</v>
+        <v>221866.8244862198</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.347792419715507E-10</v>
+        <v>1.024816990789045E-09</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.028990407490421E-26</v>
+        <v>2.829889203408771E-26</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1099,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1.821535879386959E-07</v>
+        <v>2.514926763253608E-07</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>8.275971641822917E-10</v>
+        <v>1.142632588766418E-09</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.94050559549614E-05</v>
+        <v>2.679183820413722E-05</v>
       </c>
       <c r="J17">
-        <v>0.5055913129729258</v>
+        <v>0.698051099982766</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>5.358435587236688E-22</v>
+        <v>7.398192492396857E-22</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1140,16 +1140,16 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.110723468144181E-08</v>
+        <v>2.831010845942313E-08</v>
       </c>
       <c r="D18">
-        <v>6.257194261472137E-09</v>
+        <v>8.392470679719371E-09</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.575900537295117E-10</v>
+        <v>4.796181668456203E-10</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.248580852471198E-06</v>
+        <v>3.015912258236822E-06</v>
       </c>
       <c r="J18">
-        <v>0.1145646439078586</v>
+        <v>0.1536599911639926</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.209142446497338E-23</v>
+        <v>8.328021114717624E-23</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>2.476613284631529E-09</v>
+        <v>3.346922977608896E-09</v>
       </c>
       <c r="D19">
-        <v>2.936711008087537E-09</v>
+        <v>3.968704202855601E-09</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.598336824058891E-09</v>
+        <v>4.862832753241384E-09</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.638367978963435E-07</v>
+        <v>3.565520086231008E-07</v>
       </c>
       <c r="J19">
-        <v>0.07796801226265379</v>
+        <v>0.105366846483339</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.285485238236992E-24</v>
+        <v>9.845686485733951E-24</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1222,16 +1222,16 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>0.003268536216652362</v>
+        <v>0.004355978850511016</v>
       </c>
       <c r="D20">
-        <v>0.03294391104147769</v>
+        <v>0.0439043566409581</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.331241426050635</v>
+        <v>5.772246289397745</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3482013661806271</v>
+        <v>0.464048028311376</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>9.615095140138787E-18</v>
+        <v>1.281403916001046E-17</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1263,16 +1263,16 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>0.006897309421915913</v>
+        <v>0.009619868774929919</v>
       </c>
       <c r="D21">
-        <v>0.6829188716900728</v>
+        <v>0.9524858938047793</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>159075.3652407454</v>
+        <v>221866.8244863141</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7347792419878423</v>
+        <v>1.024816990811768</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.028990407535408E-17</v>
+        <v>2.829889203471516E-17</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>2.638820591417666E-15</v>
+        <v>5.047917983504061E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>4.45408507974167E-18</v>
+        <v>1.3219918090551E-32</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>4.454085071448539E-09</v>
+        <v>1.321991806593662E-23</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0002901446121828582</v>
+        <v>3.993020435635347E-13</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.230886988965424E-07</v>
+        <v>8.448780326926443E-15</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.268290766888034E-12</v>
+        <v>3.910117373860849E-15</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.676601934344116E-13</v>
+        <v>1.950812408815889E-15</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>8.04914144265588E-12</v>
+        <v>1.600773355679499E-12</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.007936692507260059</v>
+        <v>1.190898042553938E-05</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.004194500291378238</v>
+        <v>5.864139260990636E-06</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.002194073873262891</v>
+        <v>3.908780615001784E-06</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.0003676601981205341</v>
+        <v>1.950812284656906E-06</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.008048303704868255</v>
+        <v>0.001600773355712505</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>6.843500701800726E-08</v>
+        <v>1.437264317458851E-13</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>8.988757257225302E-12</v>
+        <v>1.086308834832752E-14</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1.321514454074782E-15</v>
+        <v>4.216832679318602E-16</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3.494496300392589E-10</v>
+        <v>4.640162704057854E-10</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>7.561480085773721E-10</v>
+        <v>1.006135795753847E-09</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>6.270777258374131E-05</v>
+        <v>2.619738364288883E-05</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.337464239635296E-05</v>
+        <v>2.941050389773365E-06</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1.266006039559635E-06</v>
+        <v>3.479414049127687E-07</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.3494496405162565</v>
+        <v>0.4640162843175683</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.7561480085935974</v>
+        <v>1.006135795775437</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.030712989823246E-16</v>
+        <v>7.587655650349048E-29</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2.292878594648766E-17</v>
+        <v>4.742878024268019E-30</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.19810652273493E-17</v>
+        <v>1.876613738314637E-31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.988859982921437E-18</v>
+        <v>9.278696419097372E-32</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.6745846019018876</v>
+        <v>1.358374793077706E-28</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>4.845821711308229E-21</v>
+        <v>6.893295761571661E-22</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2.766323367682689E-21</v>
+        <v>2.788270668194614E-22</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.473887276157411E-21</v>
+        <v>1.858617924477421E-22</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2.883956497291804E-22</v>
+        <v>9.280380274846091E-23</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>9.581105329241256E-20</v>
+        <v>1.356979295809919E-19</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>7.855036472065181E-26</v>
+        <v>1.932779664317545E-29</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>7.075138998134406E-30</v>
+        <v>1.396518503927476E-30</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.54594746065591E-32</v>
+        <v>2.061495658879831E-32</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>6.654363273521777E-27</v>
+        <v>8.867460482723861E-27</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.405108748036985E-26</v>
+        <v>1.957425482408151E-26</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>3.915308298490737E-22</v>
+        <v>5.116955009159427E-22</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>4.829027608194129E-23</v>
+        <v>5.759690402071028E-23</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>5.521077704275658E-24</v>
+        <v>6.809428120955666E-24</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>6.654566063014773E-18</v>
+        <v>8.86773071530629E-18</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.405151514034669E-17</v>
+        <v>1.957485058760349E-17</v>
       </c>
       <c r="G61">
         <v>0</v>
